--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4116162.140794852</v>
+        <v>4111829.655974159</v>
       </c>
     </row>
     <row r="7">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>2.945562993021158</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>64.76935934992291</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>178.925350145155</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>148.3681250208876</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>73.73129007891178</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>189.5968436493441</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>6.283679164004356</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>305.2813040188394</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>18.37682225755684</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>261.9025067912348</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206823</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>19.91555826189056</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>123.9815576456779</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>139.1465069965572</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444129</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>54.84205284513764</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174123</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>116.287325111933</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>22.61263105777477</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856542</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>111.5512144998738</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520947</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>29.959001240238</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3669,10 +3669,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>180.438871079516</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186444</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784684</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>115.2302178375797</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>95.12712756824166</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1233.603060210037</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C2" t="n">
-        <v>864.6405432696254</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2694.173774863656</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2694.173774863656</v>
+        <v>2631.72549571527</v>
       </c>
       <c r="T2" t="n">
-        <v>2694.173774863656</v>
+        <v>2631.72549571527</v>
       </c>
       <c r="U2" t="n">
-        <v>2694.173774863656</v>
+        <v>2631.72549571527</v>
       </c>
       <c r="V2" t="n">
-        <v>2363.110887520085</v>
+        <v>2300.662608371699</v>
       </c>
       <c r="W2" t="n">
-        <v>2010.34223224997</v>
+        <v>1947.893953101585</v>
       </c>
       <c r="X2" t="n">
-        <v>2010.34223224997</v>
+        <v>1574.428194840505</v>
       </c>
       <c r="Y2" t="n">
-        <v>1620.202900274159</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,13 +4412,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1206.080506218543</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781316</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>371.1991548370755</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>357.2757507756664</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2567.644350963956</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2313.882565602048</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1982.819678258477</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1982.819678258477</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1982.819678258477</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1592.680346282665</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4655,34 +4655,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.8148076117928</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.245359491378</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>1542.779601230298</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1234.414647675915</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>463.5809975486215</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,16 +5029,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5138,7 +5138,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>113.9333885650331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,10 +5272,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5287,10 +5287,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,13 +5299,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2123.556221965915</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1834.480995310113</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1579.796507104226</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362678</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5518,19 +5518,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5542,10 +5542,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5603,19 +5603,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.221377756499</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>695.5020655703109</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>545.3854261579752</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,31 +5740,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.987318831765</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>1618.570148794804</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6071,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>738.7889117913853</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,31 +6217,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6308,25 +6308,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>842.6091804069456</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
         <v>1344.266747951538</v>
@@ -6615,7 +6615,7 @@
         <v>198.744407872558</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6782,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356188</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232832</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408902</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429799</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.61519755786</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.963083580261</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924459</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718573</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681612</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237295</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093765</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C37" t="n">
-        <v>580.8993044876688</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D37" t="n">
-        <v>580.8993044876688</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>432.9862109052757</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7192,16 +7192,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832229</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.655893893758</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>1978.054428916699</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.979202260897</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V40" t="n">
-        <v>1434.29471405501</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134626</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,7 +7423,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7441,16 +7441,16 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591808</v>
@@ -7496,22 +7496,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7627,40 +7627,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7669,28 +7669,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7730,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>2222.001901828445</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8461,7 +8461,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>24.63391537253442</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>78.25894333073106</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>91.59190980143154</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>109.4223302771041</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>117.6820817884491</v>
+        <v>36.41624546988359</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016445</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272882</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>114.1584408891633</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>115.4620467826932</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0.5874149221286302</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>32.89260457059976</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>31.20374480898943</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>72.11969353038617</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>609629.557522591</v>
+        <v>609629.5575225909</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>609629.557522591</v>
+        <v>609629.5575225909</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>609629.557522591</v>
+        <v>609629.5575225909</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>609629.557522591</v>
+        <v>609629.5575225909</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="F2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="H2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="I2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="H2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="L2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900065</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900066</v>
       </c>
       <c r="M2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900066</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900063</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577089</v>
+        <v>944372.7777577087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26401,10 +26401,10 @@
         <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.126414415126816e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670465</v>
+        <v>5067.592601670467</v>
       </c>
       <c r="F4" t="n">
+        <v>5067.592601670437</v>
+      </c>
+      <c r="G4" t="n">
         <v>5067.592601670438</v>
       </c>
-      <c r="G4" t="n">
-        <v>5067.592601670389</v>
-      </c>
       <c r="H4" t="n">
-        <v>5067.592601670409</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670473</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.59260167038</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670468</v>
+        <v>5067.592601670418</v>
       </c>
       <c r="P4" t="n">
         <v>5067.592601670437</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52849.69334140216</v>
+        <v>-52849.69334140248</v>
       </c>
       <c r="C6" t="n">
-        <v>537118.1858731422</v>
+        <v>537118.185873142</v>
       </c>
       <c r="D6" t="n">
-        <v>537118.1858731421</v>
+        <v>537118.185873142</v>
       </c>
       <c r="E6" t="n">
-        <v>-243416.3004932803</v>
+        <v>-243763.6797476369</v>
       </c>
       <c r="F6" t="n">
-        <v>700956.4772644286</v>
+        <v>700609.0980100717</v>
       </c>
       <c r="G6" t="n">
-        <v>700956.4772644287</v>
+        <v>700609.0980100718</v>
       </c>
       <c r="H6" t="n">
-        <v>700956.4772644286</v>
+        <v>700609.0980100718</v>
       </c>
       <c r="I6" t="n">
-        <v>700956.4772644287</v>
+        <v>700609.0980100718</v>
       </c>
       <c r="J6" t="n">
-        <v>524533.258071836</v>
+        <v>524185.8788174789</v>
       </c>
       <c r="K6" t="n">
-        <v>700956.4772644287</v>
+        <v>700609.0980100716</v>
       </c>
       <c r="L6" t="n">
-        <v>700956.477264429</v>
+        <v>700609.0980100718</v>
       </c>
       <c r="M6" t="n">
-        <v>576747.9665563703</v>
+        <v>576400.5873020133</v>
       </c>
       <c r="N6" t="n">
-        <v>700956.477264429</v>
+        <v>700609.0980100716</v>
       </c>
       <c r="O6" t="n">
-        <v>700956.4772644287</v>
+        <v>700609.0980100721</v>
       </c>
       <c r="P6" t="n">
-        <v>700956.4772644289</v>
+        <v>700609.0980100719</v>
       </c>
     </row>
   </sheetData>
@@ -26697,25 +26697,25 @@
         <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.08296513519298e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,10 +26795,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.08296513519298e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.40801801890852e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245871</v>
+        <v>990.2318361245869</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.08296513519298e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>51.53283958179055</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>109.6463534590486</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>33.22018880486391</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>175.5546477434695</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>142.717030278746</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>152.7829238717193</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27830,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>96.68503059263364</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>48.19472341080731</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>80.95663463721422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28019,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890123</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>24.62049154535623</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.49452394800496e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.169471064289421e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28572,16 +28572,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.303062644890316e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.08296513519298e-13</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.08296513519298e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.08296513519298e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1.08296513519298e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1.08296513519298e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.08296513519298e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.08296513519298e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.08296513519298e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.08296513519298e-13</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1.08296513519298e-13</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.08296513519298e-13</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.08296513519298e-13</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1.08296513519298e-13</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1.08296513519298e-13</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.08296513519298e-13</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.08296513519298e-13</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.08296513519298e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>1.08296513519298e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.08296513519298e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1.08296513519298e-13</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>1.08296513519298e-13</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>1.08296513519298e-13</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>1.08296513519298e-13</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.08296513519298e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30525,7 +30525,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>6.819576831720501e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31858,10 +31858,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>156.3072281639545</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32080,13 +32080,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32098,10 +32098,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32323,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>400.8433522134843</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,28 +32791,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N24" t="n">
-        <v>705.9257335045849</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33028,28 +33028,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,10 +33271,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N30" t="n">
-        <v>638.0665277849414</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>134.7284881171895</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>577.7447198439388</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
@@ -33760,7 +33760,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N39" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>173.3851399586646</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>195.7502366106279</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35023,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>22.33282074962425</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35728,13 +35728,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35746,10 +35746,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>266.868944799154</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36366,13 +36366,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36439,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N24" t="n">
-        <v>574.5840214212516</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N30" t="n">
-        <v>506.7248157016081</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0.7540807028592577</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>439.1903400640646</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367765</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N39" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>31.25110603664623</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>61.77582919629761</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4111829.655974159</v>
+        <v>4113590.186276945</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -864,10 +864,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>178.925350145155</v>
+        <v>178.9253501451547</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>148.3681250208876</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>53.33946764031355</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.283679164004356</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>141.2974503117683</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1299,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755684</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>39.25266187003817</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206823</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1465069965572</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0.03099717513950509</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>134.5665975534139</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>103.8784673763403</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>253.2918698186444</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>146.4649598217087</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>115.2302178375797</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812055</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,13 +4412,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4494,25 +4494,25 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
         <v>369.8327295799424</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>378.1446555862789</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1446555862789</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D5" t="n">
-        <v>378.1446555862789</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>378.1446555862789</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>371.1991548370755</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>357.2757507756664</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2643.270840876492</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2643.270840876492</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2389.509055514583</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2058.446168171012</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>1705.677512900898</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626212</v>
+        <v>1332.211754639818</v>
       </c>
       <c r="Y5" t="n">
-        <v>764.7444956504007</v>
+        <v>942.0724226640064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4664,7 +4664,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4795,58 +4795,58 @@
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2690.801940347511</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2690.801940347511</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>2338.033285077397</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y8" t="n">
         <v>1574.428194840505</v>
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.806220357135</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
         <v>1237.953133915166</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5029,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,19 +5053,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5132,13 +5132,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>659.9487421954783</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2123.556221965915</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1834.480995310113</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1579.796507104226</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1290.379337067265</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1062.389786169248</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>841.597207025718</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5506,37 +5506,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5606,10 +5606,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5652,16 +5652,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5673,28 +5673,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2437.724555511392</v>
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5834,19 +5834,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2338.476105524075</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.931773302342</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.076938957246</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.475473980187</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.400247324385</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.715759118498</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.298589081537</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.30903818352</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
         <v>484.8112968429803</v>
@@ -6548,19 +6548,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400712</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E31" t="n">
-        <v>365.9405071576781</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F31" t="n">
-        <v>365.9405071576781</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>198.744407872558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6691,10 +6691,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6703,19 +6703,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6782,19 +6782,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7131,16 +7131,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,19 +7189,19 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7262,13 +7262,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
         <v>2319.799627685893</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>2191.112710026075</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7493,22 +7493,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O42" t="n">
-        <v>2354.274259167293</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7642,16 +7642,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,19 +7730,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395178</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>78.25894333073106</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.34424953498218</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>10.85445046951733</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>36.41624546988359</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>34.97276993489203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>32.89260457059976</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>72.11969353038612</v>
       </c>
     </row>
     <row r="41">
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>31.20374480898943</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405073</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>609629.557522591</v>
+        <v>609629.5575225909</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="G2" t="n">
         <v>807146.5996900063</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.5996900061</v>
       </c>
       <c r="J2" t="n">
         <v>807146.5996900063</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="M2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="N2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="O2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="P2" t="n">
         <v>807146.5996900061</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.5996900066</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577087</v>
+        <v>944372.7777577091</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670467</v>
+        <v>5067.592601670396</v>
       </c>
       <c r="F4" t="n">
         <v>5067.592601670437</v>
@@ -26441,10 +26441,10 @@
         <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="L4" t="n">
         <v>5067.592601670437</v>
@@ -26453,10 +26453,10 @@
         <v>5067.592601670437</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.59260167038</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670418</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="P4" t="n">
         <v>5067.592601670437</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52849.69334140248</v>
+        <v>-52849.6933414024</v>
       </c>
       <c r="C6" t="n">
-        <v>537118.185873142</v>
+        <v>537118.1858731423</v>
       </c>
       <c r="D6" t="n">
-        <v>537118.185873142</v>
+        <v>537118.1858731421</v>
       </c>
       <c r="E6" t="n">
-        <v>-243763.6797476369</v>
+        <v>-243451.0384187163</v>
       </c>
       <c r="F6" t="n">
-        <v>700609.0980100717</v>
+        <v>700921.7393389933</v>
       </c>
       <c r="G6" t="n">
-        <v>700609.0980100718</v>
+        <v>700921.7393389932</v>
       </c>
       <c r="H6" t="n">
-        <v>700609.0980100718</v>
+        <v>700921.7393389931</v>
       </c>
       <c r="I6" t="n">
-        <v>700609.0980100718</v>
+        <v>700921.7393389931</v>
       </c>
       <c r="J6" t="n">
-        <v>524185.8788174789</v>
+        <v>524498.5201464003</v>
       </c>
       <c r="K6" t="n">
-        <v>700609.0980100716</v>
+        <v>700921.7393389931</v>
       </c>
       <c r="L6" t="n">
-        <v>700609.0980100718</v>
+        <v>700921.739338993</v>
       </c>
       <c r="M6" t="n">
-        <v>576400.5873020133</v>
+        <v>576713.2286309345</v>
       </c>
       <c r="N6" t="n">
-        <v>700609.0980100716</v>
+        <v>700921.7393389932</v>
       </c>
       <c r="O6" t="n">
-        <v>700609.0980100721</v>
+        <v>700921.7393389929</v>
       </c>
       <c r="P6" t="n">
-        <v>700609.0980100719</v>
+        <v>700921.739338993</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,13 +26795,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245869</v>
+        <v>990.2318361245874</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.421015345093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450927</v>
+        <v>498.421015345093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>109.6463534590486</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>33.22018880486391</v>
+        <v>33.22018880486422</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>175.5546477434695</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>121.0762451686579</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>48.19472341080731</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>244.9404883442853</v>
       </c>
     </row>
     <row r="9">
@@ -28019,13 +28019,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890123</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.49452394800496e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28140,7 +28140,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.193604276308554e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>351.1157147121651</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,13 +32791,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>351.1157147121651</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>446.0127311990643</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32806,7 +32806,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,19 +33031,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33268,10 +33268,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33283,7 +33283,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33502,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33982,31 +33982,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>620.1193660647493</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35032,10 +35032,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36372,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36439,13 +36439,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>213.2742757378061</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>303.8786972770459</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36454,7 +36454,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36916,10 +36916,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36931,7 +36931,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367765</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>477.985332142731</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
